--- a/Metadata/Molecular_samples_metadata.xlsx
+++ b/Metadata/Molecular_samples_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/fscucchia_ufl_edu/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federica\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92019AD3-D0C9-4836-AB56-C1A18567FF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01661E25-8944-43D2-AA48-33FBA871808F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{975EF271-A1FB-4585-9EFA-6D22346CF749}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -209,13 +209,19 @@
     <t>PH2a</t>
   </si>
   <si>
-    <t>these are spats, not enough larvae from the high to make 3 tubes</t>
-  </si>
-  <si>
     <t>PH3a</t>
   </si>
   <si>
     <t>PH1b</t>
+  </si>
+  <si>
+    <t>PC2a</t>
+  </si>
+  <si>
+    <t>PM1a</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
   </si>
 </sst>
 </file>
@@ -352,9 +358,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -392,7 +398,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -498,7 +504,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -640,7 +646,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -648,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334D980B-BA02-4E85-950C-45AFF6F9D92D}">
-  <dimension ref="A1:Z1003"/>
+  <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1665,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="11">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>49</v>
@@ -1694,7 +1700,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="11">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>51</v>
@@ -1723,7 +1729,7 @@
         <v>3</v>
       </c>
       <c r="F32" s="11">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>52</v>
@@ -1746,16 +1752,16 @@
         <v>20220716</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="11">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="F33" s="11">
-        <v>9</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>53</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>15</v>
@@ -1776,13 +1782,13 @@
         <v>29</v>
       </c>
       <c r="D34" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>15</v>
@@ -1803,13 +1809,13 @@
         <v>29</v>
       </c>
       <c r="D35" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" s="11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>15</v>
@@ -1827,16 +1833,16 @@
         <v>20220716</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D36" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" s="11">
         <v>12</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>15</v>
@@ -1847,25 +1853,23 @@
       <c r="J36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L36" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="L36" s="13"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>20220716</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="11">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="F37" s="11">
-        <v>12</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>58</v>
+        <v>9</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>15</v>
@@ -1876,9 +1880,7 @@
       <c r="J37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L37" s="13" t="s">
-        <v>50</v>
-      </c>
+      <c r="L37" s="13"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
@@ -1888,13 +1890,13 @@
         <v>39</v>
       </c>
       <c r="D38" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F38" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>15</v>
@@ -1905,40 +1907,66 @@
       <c r="J38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L38" s="13" t="s">
-        <v>50</v>
-      </c>
+      <c r="L38" s="13"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
         <v>20220716</v>
       </c>
+      <c r="C39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="11">
+        <v>2</v>
+      </c>
+      <c r="F39" s="11">
+        <v>12</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="4">
+        <v>300</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="13"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>20220716</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11">
-        <v>20220716</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11">
-        <v>20220716</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="11">
-        <v>20220716</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11">
-        <v>20220716</v>
-      </c>
-    </row>
+      <c r="C40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="11">
+        <v>3</v>
+      </c>
+      <c r="F40" s="11">
+        <v>11</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="4">
+        <v>300</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="13"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2898,6 +2926,8 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
